--- a/Link Triggered BP.xlsx
+++ b/Link Triggered BP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179F7C1-82F3-4385-8203-02AE5FEACF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9952073-F931-4A1E-B403-7B0AD98780CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="43">
   <si>
     <t>Link Triggered</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>SA Name</t>
+  </si>
+  <si>
+    <t>Divfision</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9559ACA1-5959-499F-9DA7-B47545737028}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1257,10 +1260,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1272,64 +1275,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>71.430000000000007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>55.56</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1337,19 +1340,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>52.63</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1357,10 +1360,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1377,10 +1380,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1397,13 +1400,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1412,15 +1415,15 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1432,15 +1435,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1457,10 +1460,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1477,21 +1480,41 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
+      <c r="B15">
+        <v>41</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>24.39</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3885,7 +3908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659528C8-90C5-4B39-9CF5-F2BF866A690C}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Link Triggered BP.xlsx
+++ b/Link Triggered BP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9952073-F931-4A1E-B403-7B0AD98780CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3834AB5-3C95-4A79-9122-893F65174557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Link Triggered BP.xlsx
+++ b/Link Triggered BP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3834AB5-3C95-4A79-9122-893F65174557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0445B-DA49-4054-A336-9988DD9C9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="42">
   <si>
     <t>Link Triggered</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>SA Name</t>
-  </si>
-  <si>
-    <t>Divfision</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1202,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
@@ -1235,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1283,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1325,14 +1322,14 @@
       <c r="B6">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1343,7 +1340,7 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1352,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>52.63</v>
+        <v>51.28</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1383,7 +1380,7 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1403,7 +1400,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1423,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1463,7 +1460,7 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1483,16 +1480,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -1503,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1512,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>24.39</v>
+        <v>23.81</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>

--- a/Link Triggered BP.xlsx
+++ b/Link Triggered BP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0445B-DA49-4054-A336-9988DD9C9CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB5E4A-C909-4A31-B0AD-7160AD56F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="43">
   <si>
     <t>Link Triggered</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>SA Name</t>
+  </si>
+  <si>
+    <t>DATTA SHEJAV</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9559ACA1-5959-499F-9DA7-B47545737028}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1215,7 @@
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1280,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1320,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1329,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>34.479999999999997</v>
+        <v>32.26</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -1340,7 +1343,7 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1349,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>51.28</v>
+        <v>46.51</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1377,13 +1380,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1392,18 +1395,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1417,13 +1420,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1432,15 +1435,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1452,15 +1455,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1477,19 +1480,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -1497,21 +1500,41 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>22.22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>42</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>23.81</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
     </row>
